--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -131,7 +131,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CT169"/>
+  <dimension ref="A1:CT187"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="CT3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="CT4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="CT5" s="4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="CT6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="CT7" s="4" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="CT8" s="4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="CT9" s="4" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="CT11" s="4" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="CT12" s="4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="CT13" s="4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="CT14" s="4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="CT15" s="4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="CT16" s="4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="CT17" s="4" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="CT18" s="4" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="CT19" s="4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="CT20" s="4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="CT21" s="4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="CT22" s="4" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="CT23" s="4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -7624,7 +7624,7 @@
         <v>6</v>
       </c>
       <c r="CK24" s="1" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="CL24" s="3"/>
       <c r="CM24" s="3" t="n">
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="CT24" s="4" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="CT25" s="4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="CT26" s="4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="CT27" s="4" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="CT28" s="4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="CT30" s="4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="CT31" s="4" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="CT32" s="4" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="CT34" s="4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="CT35" s="4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="CT36" s="4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="CT37" s="4" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="CT38" s="4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="CT39" s="4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -12319,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="CT40" s="4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -12584,7 +12584,7 @@
         <v>4</v>
       </c>
       <c r="CK41" s="1" t="n">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="CL41" s="3"/>
       <c r="CM41" s="3" t="n">
@@ -12874,7 +12874,7 @@
       </c>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1" t="n">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="CL42" s="3"/>
       <c r="CM42" s="3" t="n">
@@ -12899,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="CT42" s="4" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -13170,7 +13170,7 @@
         <v>2</v>
       </c>
       <c r="CK43" s="1" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CL43" s="3"/>
       <c r="CM43" s="3" t="n">
@@ -13195,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="CT43" s="4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -13483,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="CT44" s="4" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -13750,7 +13750,7 @@
         <v>5</v>
       </c>
       <c r="CK45" s="1" t="n">
-        <v>487</v>
+        <v>577</v>
       </c>
       <c r="CL45" s="3"/>
       <c r="CM45" s="3" t="n">
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="CT45" s="4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -14067,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="CT46" s="4" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -14359,7 +14359,7 @@
         <v>0</v>
       </c>
       <c r="CT47" s="4" t="n">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -14649,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="CT48" s="4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -15525,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="CT51" s="4" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -15792,7 +15792,7 @@
         <v>4</v>
       </c>
       <c r="CK52" s="1" t="n">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CL52" s="3"/>
       <c r="CM52" s="3" t="n">
@@ -16084,7 +16084,7 @@
         <v>17</v>
       </c>
       <c r="CK53" s="1" t="n">
-        <v>581</v>
+        <v>675</v>
       </c>
       <c r="CL53" s="3"/>
       <c r="CM53" s="3" t="n">
@@ -16401,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="CT54" s="4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -16668,7 +16668,7 @@
         <v>247</v>
       </c>
       <c r="CK55" s="1" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="CL55" s="3"/>
       <c r="CM55" s="3" t="n">
@@ -16985,7 +16985,7 @@
         <v>0</v>
       </c>
       <c r="CT56" s="4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="CT57" s="4" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -17542,7 +17542,7 @@
         <v>7</v>
       </c>
       <c r="CK58" s="1" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CL58" s="3"/>
       <c r="CM58" s="3" t="n">
@@ -17834,7 +17834,7 @@
         <v>6</v>
       </c>
       <c r="CK59" s="1" t="n">
-        <v>801</v>
+        <v>856</v>
       </c>
       <c r="CL59" s="3"/>
       <c r="CM59" s="3" t="n">
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="CT60" s="4" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -18418,7 +18418,7 @@
         <v>28</v>
       </c>
       <c r="CK61" s="1" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="CL61" s="3"/>
       <c r="CM61" s="3" t="n">
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="CT61" s="4" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -18710,7 +18710,7 @@
         <v>3</v>
       </c>
       <c r="CK62" s="1" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="CL62" s="3"/>
       <c r="CM62" s="3" t="n">
@@ -19315,7 +19315,7 @@
         <v>0</v>
       </c>
       <c r="CT64" s="4" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -19607,7 +19607,7 @@
         <v>0</v>
       </c>
       <c r="CT65" s="4" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -19899,7 +19899,7 @@
         <v>0</v>
       </c>
       <c r="CT66" s="4" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -20189,7 +20189,7 @@
         <v>0</v>
       </c>
       <c r="CT67" s="4" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -20456,7 +20456,7 @@
         <v>37</v>
       </c>
       <c r="CK68" s="1" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="CL68" s="3"/>
       <c r="CM68" s="3" t="n">
@@ -20773,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="CT69" s="4" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -21040,7 +21040,7 @@
         <v>56</v>
       </c>
       <c r="CK70" s="1" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="CL70" s="3"/>
       <c r="CM70" s="3" t="n">
@@ -21357,7 +21357,7 @@
         <v>0</v>
       </c>
       <c r="CT71" s="4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -21624,7 +21624,7 @@
         <v>19</v>
       </c>
       <c r="CK72" s="1" t="n">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CL72" s="3"/>
       <c r="CM72" s="3" t="n">
@@ -21941,7 +21941,7 @@
         <v>0</v>
       </c>
       <c r="CT73" s="4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="CT74" s="4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -22500,7 +22500,7 @@
         <v>33</v>
       </c>
       <c r="CK75" s="1" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="CL75" s="3"/>
       <c r="CM75" s="3" t="n">
@@ -22817,7 +22817,7 @@
         <v>0</v>
       </c>
       <c r="CT76" s="4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -23109,7 +23109,7 @@
         <v>0</v>
       </c>
       <c r="CT77" s="4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -23376,7 +23376,7 @@
         <v>3</v>
       </c>
       <c r="CK78" s="1" t="n">
-        <v>601</v>
+        <v>663</v>
       </c>
       <c r="CL78" s="3"/>
       <c r="CM78" s="3" t="n">
@@ -23401,7 +23401,7 @@
         <v>0</v>
       </c>
       <c r="CT78" s="4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -23668,7 +23668,7 @@
         <v>4</v>
       </c>
       <c r="CK79" s="1" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="CL79" s="3"/>
       <c r="CM79" s="3" t="n">
@@ -24277,7 +24277,7 @@
         <v>0</v>
       </c>
       <c r="CT81" s="4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -24836,7 +24836,7 @@
         <v>4</v>
       </c>
       <c r="CK83" s="1" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="CL83" s="3"/>
       <c r="CM83" s="3" t="n">
@@ -25128,7 +25128,7 @@
         <v>32</v>
       </c>
       <c r="CK84" s="1" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CL84" s="3"/>
       <c r="CM84" s="3" t="n">
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="CT85" s="4" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -25712,7 +25712,7 @@
         <v>34</v>
       </c>
       <c r="CK86" s="1" t="n">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="CL86" s="3"/>
       <c r="CM86" s="3" t="n">
@@ -25737,7 +25737,7 @@
         <v>0</v>
       </c>
       <c r="CT86" s="4" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="CT87" s="4" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -26321,7 +26321,7 @@
         <v>0</v>
       </c>
       <c r="CT88" s="4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -26613,7 +26613,7 @@
         <v>0</v>
       </c>
       <c r="CT89" s="4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -26880,7 +26880,7 @@
         <v>19</v>
       </c>
       <c r="CK90" s="1" t="n">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="CL90" s="3"/>
       <c r="CM90" s="3" t="n">
@@ -26905,7 +26905,7 @@
         <v>0</v>
       </c>
       <c r="CT90" s="4" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -27172,7 +27172,7 @@
         <v>11</v>
       </c>
       <c r="CK91" s="1" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="CL91" s="3"/>
       <c r="CM91" s="3" t="n">
@@ -27489,7 +27489,7 @@
         <v>0</v>
       </c>
       <c r="CT92" s="4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -27756,7 +27756,7 @@
         <v>26</v>
       </c>
       <c r="CK93" s="1" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="CL93" s="3"/>
       <c r="CM93" s="3" t="n">
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="CT94" s="4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -28340,7 +28340,7 @@
         <v>107</v>
       </c>
       <c r="CK95" s="1" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="CL95" s="3"/>
       <c r="CM95" s="3" t="n">
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="CT96" s="4" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -29239,7 +29239,7 @@
         <v>0</v>
       </c>
       <c r="CT98" s="4" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -29531,7 +29531,7 @@
         <v>0</v>
       </c>
       <c r="CT99" s="4" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -29823,7 +29823,7 @@
         <v>0</v>
       </c>
       <c r="CT100" s="4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -30115,7 +30115,7 @@
         <v>0</v>
       </c>
       <c r="CT101" s="4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -30382,7 +30382,7 @@
         <v>7</v>
       </c>
       <c r="CK102" s="1" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CL102" s="3"/>
       <c r="CM102" s="3" t="n">
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="CT103" s="4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -30991,7 +30991,7 @@
         <v>0</v>
       </c>
       <c r="CT104" s="4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -31575,7 +31575,7 @@
         <v>0</v>
       </c>
       <c r="CT106" s="4" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -32159,7 +32159,7 @@
         <v>0</v>
       </c>
       <c r="CT108" s="4" t="n">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -32449,7 +32449,7 @@
         <v>1</v>
       </c>
       <c r="CT109" s="4" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -32741,7 +32741,7 @@
         <v>0</v>
       </c>
       <c r="CT110" s="4" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -33033,7 +33033,7 @@
         <v>0</v>
       </c>
       <c r="CT111" s="4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -33325,7 +33325,7 @@
         <v>0</v>
       </c>
       <c r="CT112" s="4" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -33617,7 +33617,7 @@
         <v>0</v>
       </c>
       <c r="CT113" s="4" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -33884,7 +33884,7 @@
         <v>75</v>
       </c>
       <c r="CK114" s="1" t="n">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="CL114" s="3"/>
       <c r="CM114" s="3" t="n">
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="CT115" s="4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -34493,7 +34493,7 @@
         <v>0</v>
       </c>
       <c r="CT116" s="4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="CT117" s="4" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -35075,7 +35075,7 @@
         <v>0</v>
       </c>
       <c r="CT118" s="4" t="n">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -35365,7 +35365,7 @@
         <v>1</v>
       </c>
       <c r="CT119" s="4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -35657,7 +35657,7 @@
         <v>0</v>
       </c>
       <c r="CT120" s="4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -35953,7 +35953,7 @@
         <v>0</v>
       </c>
       <c r="CT121" s="4" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -36245,7 +36245,7 @@
         <v>0</v>
       </c>
       <c r="CT122" s="4" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -36804,7 +36804,7 @@
         <v>4</v>
       </c>
       <c r="CK124" s="1" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="CL124" s="3"/>
       <c r="CM124" s="3" t="n">
@@ -37121,7 +37121,7 @@
         <v>0</v>
       </c>
       <c r="CT125" s="4" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -37413,7 +37413,7 @@
         <v>0</v>
       </c>
       <c r="CT126" s="4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="CT127" s="4" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -37995,7 +37995,7 @@
         <v>0</v>
       </c>
       <c r="CT128" s="4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -38579,7 +38579,7 @@
         <v>0</v>
       </c>
       <c r="CT130" s="4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -38846,7 +38846,7 @@
         <v>70</v>
       </c>
       <c r="CK131" s="1" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="CL131" s="3"/>
       <c r="CM131" s="3" t="n">
@@ -38871,7 +38871,7 @@
         <v>0</v>
       </c>
       <c r="CT131" s="4" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -39455,7 +39455,7 @@
         <v>0</v>
       </c>
       <c r="CT133" s="4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -39747,7 +39747,7 @@
         <v>0</v>
       </c>
       <c r="CT134" s="4" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -40306,7 +40306,7 @@
         <v>57</v>
       </c>
       <c r="CK136" s="1" t="n">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="CL136" s="3"/>
       <c r="CM136" s="3" t="n">
@@ -40331,7 +40331,7 @@
         <v>0</v>
       </c>
       <c r="CT136" s="4" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -40623,7 +40623,7 @@
         <v>0</v>
       </c>
       <c r="CT137" s="4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -40915,7 +40915,7 @@
         <v>0</v>
       </c>
       <c r="CT138" s="4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -41207,7 +41207,7 @@
         <v>0</v>
       </c>
       <c r="CT139" s="4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -41474,7 +41474,7 @@
         <v>8</v>
       </c>
       <c r="CK140" s="1" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="CL140" s="3"/>
       <c r="CM140" s="3" t="n">
@@ -41499,7 +41499,7 @@
         <v>0</v>
       </c>
       <c r="CT140" s="4" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -41791,7 +41791,7 @@
         <v>0</v>
       </c>
       <c r="CT141" s="4" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -42058,7 +42058,7 @@
         <v>2</v>
       </c>
       <c r="CK142" s="1" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="CL142" s="3"/>
       <c r="CM142" s="3" t="n">
@@ -42083,7 +42083,7 @@
         <v>0</v>
       </c>
       <c r="CT142" s="4" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -42375,7 +42375,7 @@
         <v>0</v>
       </c>
       <c r="CT143" s="4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -42667,7 +42667,7 @@
         <v>0</v>
       </c>
       <c r="CT144" s="4" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -42959,7 +42959,7 @@
         <v>0</v>
       </c>
       <c r="CT145" s="4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -43249,7 +43249,7 @@
         <v>1</v>
       </c>
       <c r="CT146" s="4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -43541,7 +43541,7 @@
         <v>0</v>
       </c>
       <c r="CT147" s="4" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -43833,7 +43833,7 @@
         <v>0</v>
       </c>
       <c r="CT148" s="4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -44125,7 +44125,7 @@
         <v>0</v>
       </c>
       <c r="CT149" s="4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -44417,7 +44417,7 @@
         <v>0</v>
       </c>
       <c r="CT150" s="4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -44707,7 +44707,7 @@
         <v>1</v>
       </c>
       <c r="CT151" s="4" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -44999,7 +44999,7 @@
         <v>0</v>
       </c>
       <c r="CT152" s="4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -45291,7 +45291,7 @@
         <v>0</v>
       </c>
       <c r="CT153" s="4" t="n">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -45581,7 +45581,7 @@
         <v>1</v>
       </c>
       <c r="CT154" s="4" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -45873,7 +45873,7 @@
         <v>0</v>
       </c>
       <c r="CT155" s="4" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -46165,7 +46165,7 @@
         <v>0</v>
       </c>
       <c r="CT156" s="4" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -46457,7 +46457,7 @@
         <v>0</v>
       </c>
       <c r="CT157" s="4" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -46745,7 +46745,7 @@
         <v>3</v>
       </c>
       <c r="CT158" s="4" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -47037,7 +47037,7 @@
         <v>0</v>
       </c>
       <c r="CT159" s="4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -47329,7 +47329,7 @@
         <v>0</v>
       </c>
       <c r="CT160" s="4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -47621,7 +47621,7 @@
         <v>0</v>
       </c>
       <c r="CT161" s="4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -47913,7 +47913,7 @@
         <v>0</v>
       </c>
       <c r="CT162" s="4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -48203,7 +48203,7 @@
         <v>0</v>
       </c>
       <c r="CT163" s="4" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -48470,7 +48470,7 @@
         <v>5</v>
       </c>
       <c r="CK164" s="1" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CL164" s="3"/>
       <c r="CM164" s="3" t="n">
@@ -48760,7 +48760,7 @@
       </c>
       <c r="CJ165" s="1"/>
       <c r="CK165" s="1" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="CL165" s="3"/>
       <c r="CM165" s="3" t="n">
@@ -48785,7 +48785,7 @@
         <v>0</v>
       </c>
       <c r="CT165" s="4" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -49369,7 +49369,7 @@
         <v>0</v>
       </c>
       <c r="CT167" s="4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -49661,7 +49661,7 @@
         <v>0</v>
       </c>
       <c r="CT168" s="4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -49953,7 +49953,5263 @@
         <v>0</v>
       </c>
       <c r="CT169" s="4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
+      <c r="A170" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F170" s="3" t="n">
+        <v>45436.727233796</v>
+      </c>
+      <c r="G170" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="H170" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J170" s="2"/>
+      <c r="K170" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="O170" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P170" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="T170" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU170" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV170" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX170" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB170" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD170" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE170" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL170" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM170" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU170" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY170" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="BZ170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA170" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="CB170" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="CC170" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="CD170" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="CE170" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CF170" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="CG170" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH170" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="CI170" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="CJ170" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="CK170" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="CL170" s="3"/>
+      <c r="CM170" s="3" t="n">
+        <v>45436.732604167</v>
+      </c>
+      <c r="CN170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP170" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ170" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT170" s="4" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
+      <c r="A171" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F171" s="3" t="n">
+        <v>45436.750115741</v>
+      </c>
+      <c r="G171" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I171" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J171" s="2"/>
+      <c r="K171" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="L171" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W171" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X171" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA171" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB171" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC171" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD171" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE171" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI171" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK171" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN171" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS171" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT171" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU171" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV171" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA171" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI171" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ171" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR171" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS171" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV171" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY171" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="BZ171" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="CA171" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="CB171" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="CC171" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="CD171" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="CE171" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="CF171" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="CG171" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="CH171" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="CI171" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="CJ171" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="CK171" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="CL171" s="3"/>
+      <c r="CM171" s="3" t="n">
+        <v>45436.758738426</v>
+      </c>
+      <c r="CN171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP171" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ171" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT171" s="4" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
+      <c r="A172" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F172" s="3" t="n">
+        <v>45436.784780093</v>
+      </c>
+      <c r="G172" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="H172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J172" s="2"/>
+      <c r="K172" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L172" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N172" s="4" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="O172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK172" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP172" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU172" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV172" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV172" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY172" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="BZ172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA172" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="CB172" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="CC172" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="CD172" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="CE172" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="CF172" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="CG172" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="CH172" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI172" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="CJ172" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CK172" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="CL172" s="3"/>
+      <c r="CM172" s="3" t="n">
+        <v>45436.792858796</v>
+      </c>
+      <c r="CN172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP172" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ172" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT172" s="4" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
+      <c r="A173" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F173" s="3" t="n">
+        <v>45436.794490741</v>
+      </c>
+      <c r="G173" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J173" s="2"/>
+      <c r="K173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N173" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="O173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R173" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V173" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X173" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z173" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB173" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC173" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD173" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF173" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH173" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR173" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD173" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK173" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP173" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ173" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS173" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT173" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV173" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY173" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="BZ173" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="CA173" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="CB173" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="CC173" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="CD173" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="CE173" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="CF173" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="CG173" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="CH173" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="CI173" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="CJ173" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK173" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="CL173" s="3"/>
+      <c r="CM173" s="3" t="n">
+        <v>45436.808310185</v>
+      </c>
+      <c r="CN173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP173" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ173" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT173" s="4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
+      <c r="A174" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F174" s="3" t="n">
+        <v>45436.804722222</v>
+      </c>
+      <c r="G174" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J174" s="2"/>
+      <c r="K174" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="O174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S174" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U174" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V174" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X174" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y174" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA174" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB174" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD174" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU174" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX174" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB174" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI174" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP174" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ174" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR174" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS174" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV174" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY174" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ174" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA174" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="CB174" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="CC174" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="CD174" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="CE174" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="CF174" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="CG174" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="CH174" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="CI174" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CJ174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK174" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="CL174" s="3"/>
+      <c r="CM174" s="3" t="n">
+        <v>45436.808784722</v>
+      </c>
+      <c r="CN174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP174" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ174" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT174" s="4" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
+      <c r="A175" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F175" s="3" t="n">
+        <v>45437.325752315</v>
+      </c>
+      <c r="G175" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J175" s="2"/>
+      <c r="K175" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N175" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O175" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q175" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB175" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC175" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD175" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE175" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF175" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG175" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH175" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ175" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU175" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV175" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX175" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA175" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE175" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF175" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG175" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH175" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP175" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ175" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT175" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY175" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="BZ175" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="CA175" s="1" t="n">
+        <v>12166</v>
+      </c>
+      <c r="CB175" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="CC175" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="CD175" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="CE175" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="CF175" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="CG175" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="CH175" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="CI175" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="CJ175" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="CK175" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="CL175" s="3"/>
+      <c r="CM175" s="3" t="n">
+        <v>45437.482361111</v>
+      </c>
+      <c r="CN175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP175" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ175" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT175" s="4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
+      <c r="A176" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F176" s="3" t="n">
+        <v>45437.400289352</v>
+      </c>
+      <c r="G176" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="H176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J176" s="2"/>
+      <c r="K176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N176" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S176" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z176" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB176" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC176" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD176" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG176" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI176" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ176" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM176" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS176" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU176" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV176" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX176" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA176" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF176" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH176" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI176" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ176" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR176" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS176" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT176" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV176" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY176" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="BZ176" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA176" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="CB176" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="CC176" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="CD176" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="CE176" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="CF176" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="CG176" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="CH176" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="CI176" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="CJ176" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="CK176" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="CL176" s="3"/>
+      <c r="CM176" s="3" t="n">
+        <v>45437.408912037</v>
+      </c>
+      <c r="CN176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP176" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ176" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT176" s="4" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
+      <c r="A177" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F177" s="3" t="n">
+        <v>45437.825914352</v>
+      </c>
+      <c r="G177" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="H177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J177" s="2"/>
+      <c r="K177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N177" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R177" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S177" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U177" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V177" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W177" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X177" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y177" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA177" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG177" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI177" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ177" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK177" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL177" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS177" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW177" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA177" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF177" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH177" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY177" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BZ177" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA177" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="CB177" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="CC177" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="CD177" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="CE177" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="CF177" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="CG177" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="CH177" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="CI177" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="CJ177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK177" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="CL177" s="3"/>
+      <c r="CM177" s="3" t="n">
+        <v>45437.831053241</v>
+      </c>
+      <c r="CN177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP177" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ177" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT177" s="4" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
+      <c r="A178" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F178" s="3" t="n">
+        <v>45438.344918981</v>
+      </c>
+      <c r="G178" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J178" s="2"/>
+      <c r="K178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N178" s="4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK178" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL178" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN178" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU178" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV178" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP178" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ178" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BR178" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS178" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU178" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV178" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY178" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="BZ178" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA178" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="CB178" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="CC178" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="CD178" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="CE178" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF178" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="CG178" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="CH178" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="CI178" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="CJ178" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="CK178" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="CL178" s="3"/>
+      <c r="CM178" s="3" t="n">
+        <v>45438.353043981</v>
+      </c>
+      <c r="CN178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP178" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ178" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT178" s="4" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
+      <c r="A179" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F179" s="3" t="n">
+        <v>45438.846458333</v>
+      </c>
+      <c r="G179" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="H179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I179" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J179" s="2"/>
+      <c r="K179" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="L179" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="M179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="O179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W179" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD179" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE179" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF179" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK179" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM179" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS179" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT179" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU179" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV179" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX179" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA179" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI179" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM179" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP179" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ179" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR179" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS179" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT179" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU179" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV179" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY179" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BZ179" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA179" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="CB179" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="CD179" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="CE179" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="CF179" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CG179" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="CH179" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="CI179" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="CJ179" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="CK179" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="CL179" s="3"/>
+      <c r="CM179" s="3" t="n">
+        <v>45438.859525463</v>
+      </c>
+      <c r="CN179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP179" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ179" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT179" s="4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
+      <c r="A180" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F180" s="3" t="n">
+        <v>45438.886122685</v>
+      </c>
+      <c r="G180" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="H180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J180" s="2"/>
+      <c r="K180" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R180" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA180" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB180" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC180" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE180" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK180" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL180" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM180" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN180" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO180" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP180" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR180" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV180" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW180" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX180" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA180" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB180" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BR180" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT180" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV180" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY180" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="BZ180" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="CA180" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="CB180" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="CC180" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="CD180" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="CE180" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="CF180" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="CG180" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="CH180" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="CI180" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="CJ180" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CK180" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="CL180" s="3"/>
+      <c r="CM180" s="3" t="n">
+        <v>45438.899247685</v>
+      </c>
+      <c r="CN180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP180" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ180" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT180" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
+      <c r="A181" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F181" s="3" t="n">
+        <v>45438.931481481</v>
+      </c>
+      <c r="G181" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J181" s="2"/>
+      <c r="K181" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N181" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="O181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P181" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R181" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U181" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W181" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X181" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y181" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z181" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB181" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC181" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD181" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF181" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK181" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO181" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP181" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ181" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR181" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT181" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU181" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV181" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX181" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB181" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF181" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI181" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL181" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP181" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ181" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS181" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT181" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV181" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY181" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="BZ181" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA181" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CB181" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="CC181" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="CD181" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="CE181" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="CF181" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="CG181" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CH181" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="CI181" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="CJ181" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK181" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="CL181" s="3"/>
+      <c r="CM181" s="3" t="n">
+        <v>45438.939421296</v>
+      </c>
+      <c r="CN181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP181" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ181" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT181" s="4" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
+      <c r="A182" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F182" s="3" t="n">
+        <v>45439.342905093</v>
+      </c>
+      <c r="G182" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="H182" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J182" s="2"/>
+      <c r="K182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O182" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S182" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T182" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y182" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA182" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF182" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH182" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK182" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT182" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV182" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX182" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ182" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA182" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB182" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC182" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD182" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF182" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG182" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI182" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL182" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO182" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ182" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR182" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS182" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT182" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU182" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV182" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY182" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="BZ182" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA182" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="CB182" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="CC182" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CD182" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="CE182" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="CF182" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="CG182" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="CH182" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CI182" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="CJ182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK182" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="CL182" s="3"/>
+      <c r="CM182" s="3" t="n">
+        <v>45439.347916667</v>
+      </c>
+      <c r="CN182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP182" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ182" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT182" s="4" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
+      <c r="A183" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F183" s="3" t="n">
+        <v>45439.357835648</v>
+      </c>
+      <c r="G183" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="H183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I183" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J183" s="2"/>
+      <c r="K183" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O183" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE183" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF183" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH183" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO183" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW183" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY183" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ183" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BQ183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY183" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="BZ183" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="CA183" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="CB183" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="CC183" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="CD183" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="CE183" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="CF183" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CG183" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="CH183" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="CI183" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="CJ183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK183" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="CL183" s="3"/>
+      <c r="CM183" s="3" t="n">
+        <v>45439.367777778</v>
+      </c>
+      <c r="CN183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP183" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ183" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT183" s="4" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
+      <c r="A184" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F184" s="3" t="n">
+        <v>45439.440208333</v>
+      </c>
+      <c r="G184" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="H184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J184" s="2"/>
+      <c r="K184" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O184" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R184" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S184" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="T184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U184" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V184" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH184" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ184" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL184" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU184" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV184" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA184" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF184" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH184" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR184" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ184" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA184" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="CB184" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="CC184" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD184" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="CE184" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="CF184" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="CG184" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="CH184" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="CI184" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="CJ184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK184" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="CL184" s="3"/>
+      <c r="CM184" s="3" t="n">
+        <v>45439.445208333</v>
+      </c>
+      <c r="CN184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP184" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ184" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT184" s="4" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
+      <c r="A185" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F185" s="3" t="n">
+        <v>45439.459965278</v>
+      </c>
+      <c r="G185" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H185" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J185" s="2"/>
+      <c r="K185" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L185" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M185" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R185" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S185" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T185" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X185" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA185" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ185" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP185" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG185" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ185" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM185" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN185" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY185" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="BZ185" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="CA185" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="CB185" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="CC185" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="CD185" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="CE185" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="CF185" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="CG185" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="CH185" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="CI185" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="CJ185" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="CK185" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="CL185" s="3"/>
+      <c r="CM185" s="3" t="n">
+        <v>45439.472210648</v>
+      </c>
+      <c r="CN185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP185" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ185" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT185" s="4" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
+      <c r="A186" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F186" s="3" t="n">
+        <v>45439.501041667</v>
+      </c>
+      <c r="G186" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="H186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I186" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J186" s="2"/>
+      <c r="K186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N186" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q186" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA186" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC186" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV186" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ186" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE186" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI186" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL186" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BQ186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS186" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BZ186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA186" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="CB186" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="CC186" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="CD186" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="CE186" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="CF186" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="CG186" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="CH186" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="CI186" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="CJ186" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK186" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="CL186" s="3"/>
+      <c r="CM186" s="3" t="n">
+        <v>45439.504571759</v>
+      </c>
+      <c r="CN186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP186" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ186" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT186" s="4" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
+      <c r="A187" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F187" s="3" t="n">
+        <v>45439.548333333</v>
+      </c>
+      <c r="G187" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="H187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I187" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J187" s="2"/>
+      <c r="K187" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="L187" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N187" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="O187" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U187" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V187" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W187" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X187" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK187" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM187" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN187" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO187" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP187" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ187" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR187" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS187" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT187" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV187" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW187" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX187" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA187" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI187" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP187" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ187" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR187" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT187" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU187" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV187" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY187" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="BZ187" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="CA187" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="CB187" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="CC187" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="CD187" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="CE187" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="CF187" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="CG187" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="CH187" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="CI187" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="CJ187" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="CK187" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="CL187" s="3"/>
+      <c r="CM187" s="3" t="n">
+        <v>45439.563935185</v>
+      </c>
+      <c r="CN187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP187" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ187" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT187" s="4" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -131,7 +131,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CT187"/>
+  <dimension ref="A1:CT194"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="CT8" s="4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -3532,7 +3532,7 @@
         <v>15</v>
       </c>
       <c r="CK10" s="1" t="n">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="CL10" s="3"/>
       <c r="CM10" s="3" t="n">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="CT12" s="4" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="CT14" s="4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="CT17" s="4" t="n">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -7624,7 +7624,7 @@
         <v>6</v>
       </c>
       <c r="CK24" s="1" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="CL24" s="3"/>
       <c r="CM24" s="3" t="n">
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="CT24" s="4" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="CT28" s="4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="CT30" s="4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -12319,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="CT40" s="4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -12584,7 +12584,7 @@
         <v>4</v>
       </c>
       <c r="CK41" s="1" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="CL41" s="3"/>
       <c r="CM41" s="3" t="n">
@@ -12874,7 +12874,7 @@
       </c>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1" t="n">
-        <v>941</v>
+        <v>1005</v>
       </c>
       <c r="CL42" s="3"/>
       <c r="CM42" s="3" t="n">
@@ -13195,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="CT43" s="4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -13483,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="CT44" s="4" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="CT45" s="4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -14334,7 +14334,7 @@
         <v>120</v>
       </c>
       <c r="CK47" s="1" t="n">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="CL47" s="3"/>
       <c r="CM47" s="3" t="n">
@@ -15500,7 +15500,7 @@
         <v>4</v>
       </c>
       <c r="CK51" s="1" t="n">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="CL51" s="3"/>
       <c r="CM51" s="3" t="n">
@@ -15792,7 +15792,7 @@
         <v>4</v>
       </c>
       <c r="CK52" s="1" t="n">
-        <v>761</v>
+        <v>832</v>
       </c>
       <c r="CL52" s="3"/>
       <c r="CM52" s="3" t="n">
@@ -16084,7 +16084,7 @@
         <v>17</v>
       </c>
       <c r="CK53" s="1" t="n">
-        <v>675</v>
+        <v>810</v>
       </c>
       <c r="CL53" s="3"/>
       <c r="CM53" s="3" t="n">
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="CT57" s="4" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -17834,7 +17834,7 @@
         <v>6</v>
       </c>
       <c r="CK59" s="1" t="n">
-        <v>856</v>
+        <v>924</v>
       </c>
       <c r="CL59" s="3"/>
       <c r="CM59" s="3" t="n">
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="CT61" s="4" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -18998,7 +18998,7 @@
         <v>13</v>
       </c>
       <c r="CK63" s="1" t="n">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="CL63" s="3"/>
       <c r="CM63" s="3" t="n">
@@ -19023,7 +19023,7 @@
         <v>3</v>
       </c>
       <c r="CT63" s="4" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -19315,7 +19315,7 @@
         <v>0</v>
       </c>
       <c r="CT64" s="4" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -19607,7 +19607,7 @@
         <v>0</v>
       </c>
       <c r="CT65" s="4" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -19874,7 +19874,7 @@
         <v>35</v>
       </c>
       <c r="CK66" s="1" t="n">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="CL66" s="3"/>
       <c r="CM66" s="3" t="n">
@@ -19899,7 +19899,7 @@
         <v>0</v>
       </c>
       <c r="CT66" s="4" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -21624,7 +21624,7 @@
         <v>19</v>
       </c>
       <c r="CK72" s="1" t="n">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="CL72" s="3"/>
       <c r="CM72" s="3" t="n">
@@ -23109,7 +23109,7 @@
         <v>0</v>
       </c>
       <c r="CT77" s="4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -23401,7 +23401,7 @@
         <v>0</v>
       </c>
       <c r="CT78" s="4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -23668,7 +23668,7 @@
         <v>4</v>
       </c>
       <c r="CK79" s="1" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="CL79" s="3"/>
       <c r="CM79" s="3" t="n">
@@ -25737,7 +25737,7 @@
         <v>0</v>
       </c>
       <c r="CT86" s="4" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="CT87" s="4" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -26905,7 +26905,7 @@
         <v>0</v>
       </c>
       <c r="CT90" s="4" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -27172,7 +27172,7 @@
         <v>11</v>
       </c>
       <c r="CK91" s="1" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="CL91" s="3"/>
       <c r="CM91" s="3" t="n">
@@ -28340,7 +28340,7 @@
         <v>107</v>
       </c>
       <c r="CK95" s="1" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="CL95" s="3"/>
       <c r="CM95" s="3" t="n">
@@ -29214,7 +29214,7 @@
         <v>19</v>
       </c>
       <c r="CK98" s="1" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="CL98" s="3"/>
       <c r="CM98" s="3" t="n">
@@ -29823,7 +29823,7 @@
         <v>0</v>
       </c>
       <c r="CT100" s="4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -31283,7 +31283,7 @@
         <v>0</v>
       </c>
       <c r="CT105" s="4" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -32449,7 +32449,7 @@
         <v>1</v>
       </c>
       <c r="CT109" s="4" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -33884,7 +33884,7 @@
         <v>75</v>
       </c>
       <c r="CK114" s="1" t="n">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="CL114" s="3"/>
       <c r="CM114" s="3" t="n">
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="CT115" s="4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -34493,7 +34493,7 @@
         <v>0</v>
       </c>
       <c r="CT116" s="4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -36245,7 +36245,7 @@
         <v>0</v>
       </c>
       <c r="CT122" s="4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -37121,7 +37121,7 @@
         <v>0</v>
       </c>
       <c r="CT125" s="4" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="CT127" s="4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -37995,7 +37995,7 @@
         <v>0</v>
       </c>
       <c r="CT128" s="4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -38846,7 +38846,7 @@
         <v>70</v>
       </c>
       <c r="CK131" s="1" t="n">
-        <v>987</v>
+        <v>883</v>
       </c>
       <c r="CL131" s="3"/>
       <c r="CM131" s="3" t="n">
@@ -38871,7 +38871,7 @@
         <v>0</v>
       </c>
       <c r="CT131" s="4" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -40306,7 +40306,7 @@
         <v>57</v>
       </c>
       <c r="CK136" s="1" t="n">
-        <v>748</v>
+        <v>815</v>
       </c>
       <c r="CL136" s="3"/>
       <c r="CM136" s="3" t="n">
@@ -40331,7 +40331,7 @@
         <v>0</v>
       </c>
       <c r="CT136" s="4" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -41474,7 +41474,7 @@
         <v>8</v>
       </c>
       <c r="CK140" s="1" t="n">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="CL140" s="3"/>
       <c r="CM140" s="3" t="n">
@@ -41499,7 +41499,7 @@
         <v>0</v>
       </c>
       <c r="CT140" s="4" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -42058,7 +42058,7 @@
         <v>2</v>
       </c>
       <c r="CK142" s="1" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="CL142" s="3"/>
       <c r="CM142" s="3" t="n">
@@ -42083,7 +42083,7 @@
         <v>0</v>
       </c>
       <c r="CT142" s="4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -43833,7 +43833,7 @@
         <v>0</v>
       </c>
       <c r="CT148" s="4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -44417,7 +44417,7 @@
         <v>0</v>
       </c>
       <c r="CT150" s="4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -44999,7 +44999,7 @@
         <v>0</v>
       </c>
       <c r="CT152" s="4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -45291,7 +45291,7 @@
         <v>0</v>
       </c>
       <c r="CT153" s="4" t="n">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -46745,7 +46745,7 @@
         <v>3</v>
       </c>
       <c r="CT158" s="4" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -48785,7 +48785,7 @@
         <v>0</v>
       </c>
       <c r="CT165" s="4" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -49052,7 +49052,7 @@
         <v>7</v>
       </c>
       <c r="CK166" s="1" t="n">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="CL166" s="3"/>
       <c r="CM166" s="3" t="n">
@@ -49661,7 +49661,7 @@
         <v>0</v>
       </c>
       <c r="CT168" s="4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -49928,7 +49928,7 @@
         <v>7</v>
       </c>
       <c r="CK169" s="1" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="CL169" s="3"/>
       <c r="CM169" s="3" t="n">
@@ -49953,7 +49953,7 @@
         <v>0</v>
       </c>
       <c r="CT169" s="4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -50829,7 +50829,7 @@
         <v>0</v>
       </c>
       <c r="CT172" s="4" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -51096,7 +51096,7 @@
         <v>4</v>
       </c>
       <c r="CK173" s="1" t="n">
-        <v>742</v>
+        <v>878</v>
       </c>
       <c r="CL173" s="3"/>
       <c r="CM173" s="3" t="n">
@@ -51413,7 +51413,7 @@
         <v>0</v>
       </c>
       <c r="CT174" s="4" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -52848,7 +52848,7 @@
         <v>24</v>
       </c>
       <c r="CK179" s="1" t="n">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="CL179" s="3"/>
       <c r="CM179" s="3" t="n">
@@ -53432,7 +53432,7 @@
         <v>6</v>
       </c>
       <c r="CK181" s="1" t="n">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="CL181" s="3"/>
       <c r="CM181" s="3" t="n">
@@ -54333,7 +54333,7 @@
         <v>0</v>
       </c>
       <c r="CT184" s="4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -55210,6 +55210,2048 @@
       </c>
       <c r="CT187" s="4" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
+      <c r="A188" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F188" s="3" t="n">
+        <v>45439.686377315</v>
+      </c>
+      <c r="G188" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J188" s="2"/>
+      <c r="K188" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="L188" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="O188" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z188" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB188" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC188" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD188" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF188" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM188" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN188" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO188" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BQ188" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY188" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ188" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA188" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="CB188" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="CC188" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="CD188" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="CE188" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="CF188" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="CG188" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="CH188" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CI188" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="CJ188" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="CK188" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="CL188" s="3"/>
+      <c r="CM188" s="3" t="n">
+        <v>45439.693912037</v>
+      </c>
+      <c r="CN188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP188" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ188" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT188" s="4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
+      <c r="A189" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F189" s="3" t="n">
+        <v>45439.886724537</v>
+      </c>
+      <c r="G189" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="H189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I189" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J189" s="2"/>
+      <c r="K189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N189" s="4" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="O189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI189" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ189" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR189" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS189" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV189" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX189" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA189" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BQ189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY189" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="BZ189" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="CA189" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="CB189" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="CC189" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="CD189" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CE189" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="CF189" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="CG189" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="CH189" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="CI189" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="CJ189" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="CK189" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="CL189" s="3"/>
+      <c r="CM189" s="3" t="n">
+        <v>45439.893530093</v>
+      </c>
+      <c r="CN189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP189" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ189" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT189" s="4" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
+      <c r="A190" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F190" s="3" t="n">
+        <v>45440.668576389</v>
+      </c>
+      <c r="G190" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I190" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J190" s="2"/>
+      <c r="K190" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O190" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF190" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG190" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH190" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI190" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ190" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK190" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ190" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR190" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT190" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU190" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV190" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX190" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA190" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE190" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ190" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK190" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP190" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ190" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BR190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS190" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT190" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU190" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV190" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY190" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BZ190" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA190" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="CB190" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="CC190" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="CD190" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="CE190" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="CF190" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="CG190" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="CH190" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="CI190" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="CJ190" s="1"/>
+      <c r="CK190" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="CL190" s="3"/>
+      <c r="CM190" s="3" t="n">
+        <v>45440.674131944</v>
+      </c>
+      <c r="CN190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP190" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CQ190" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CR190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT190" s="4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
+      <c r="A191" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F191" s="3" t="n">
+        <v>45441.718946759</v>
+      </c>
+      <c r="G191" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="H191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J191" s="2"/>
+      <c r="K191" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="L191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P191" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R191" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S191" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="T191" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U191" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W191" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X191" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y191" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB191" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC191" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN191" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP191" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW191" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI191" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK191" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BR191" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS191" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV191" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY191" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BZ191" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="CA191" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="CB191" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="CC191" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="CD191" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="CE191" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="CF191" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="CG191" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="CH191" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="CI191" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="CJ191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK191" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="CL191" s="3"/>
+      <c r="CM191" s="3" t="n">
+        <v>45441.733553241</v>
+      </c>
+      <c r="CN191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP191" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ191" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT191" s="4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
+      <c r="A192" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F192" s="3" t="n">
+        <v>45441.908831019</v>
+      </c>
+      <c r="G192" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="H192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J192" s="2"/>
+      <c r="K192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W192" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI192" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK192" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP192" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT192" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU192" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV192" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA192" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB192" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH192" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT192" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU192" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY192" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="BZ192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA192" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="CB192" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="CC192" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="CD192" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="CE192" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CF192" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="CG192" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="CH192" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="CI192" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="CJ192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK192" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="CL192" s="3"/>
+      <c r="CM192" s="3" t="n">
+        <v>45441.913275463</v>
+      </c>
+      <c r="CN192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP192" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ192" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT192" s="4" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
+      <c r="A193" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F193" s="3" t="n">
+        <v>45442.359571759</v>
+      </c>
+      <c r="G193" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="H193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J193" s="2"/>
+      <c r="K193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="O193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R193" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U193" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA193" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI193" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ193" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL193" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ193" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR193" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS193" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV193" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW193" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX193" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB193" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE193" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI193" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BR193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS193" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT193" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU193" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV193" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY193" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="BZ193" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA193" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="CB193" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="CC193" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="CD193" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="CE193" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="CF193" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="CG193" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="CH193" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="CI193" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="CJ193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK193" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="CL193" s="3"/>
+      <c r="CM193" s="3" t="n">
+        <v>45442.364837963</v>
+      </c>
+      <c r="CN193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP193" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ193" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT193" s="4" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
+      <c r="A194" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F194" s="3" t="n">
+        <v>45442.386944444</v>
+      </c>
+      <c r="G194" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="H194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I194" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J194" s="2"/>
+      <c r="K194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O194" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R194" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S194" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="T194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U194" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V194" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB194" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE194" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF194" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG194" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH194" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ194" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK194" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL194" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM194" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN194" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP194" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ194" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR194" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU194" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV194" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY194" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA194" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP194" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ194" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR194" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU194" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY194" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="BZ194" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA194" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="CB194" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="CC194" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="CD194" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="CE194" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="CF194" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="CG194" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="CH194" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="CI194" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="CJ194" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="CK194" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="CL194" s="3"/>
+      <c r="CM194" s="3" t="n">
+        <v>45442.391134259</v>
+      </c>
+      <c r="CN194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP194" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CQ194" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CR194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT194" s="4" t="n">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>
